--- a/Templates/DanhSachHoiVien.xlsx
+++ b/Templates/DanhSachHoiVien.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letha\OneDrive\Documents\VRM\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORKS\VRM\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -137,16 +137,112 @@
     <t>Năm cấp thẻ hội viên</t>
   </si>
   <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
     <t>$STT</t>
   </si>
   <si>
-    <t>$FULLNAME</t>
-  </si>
-  <si>
-    <t>$DOB</t>
+    <t>$HoTen</t>
+  </si>
+  <si>
+    <t>$NamSinh</t>
+  </si>
+  <si>
+    <t>$NgayNhapNgu</t>
+  </si>
+  <si>
+    <t>$NgayXuatNgu</t>
+  </si>
+  <si>
+    <t>$DangVien</t>
+  </si>
+  <si>
+    <t>$CapTuong</t>
+  </si>
+  <si>
+    <t>$BonGach</t>
+  </si>
+  <si>
+    <t>$BaGach</t>
+  </si>
+  <si>
+    <t>$HaiGach</t>
+  </si>
+  <si>
+    <t>$MotGach</t>
+  </si>
+  <si>
+    <t>$CapUy</t>
+  </si>
+  <si>
+    <t>$HSQCS</t>
+  </si>
+  <si>
+    <t>$QNCN</t>
+  </si>
+  <si>
+    <t>$CNVQP</t>
+  </si>
+  <si>
+    <t>$ChucVu</t>
+  </si>
+  <si>
+    <t>$ChucVu_CDDienBienPhu</t>
+  </si>
+  <si>
+    <t>$DonVi_CDDienBienPhu</t>
+  </si>
+  <si>
+    <t>$ChucVu_GPThuDo</t>
+  </si>
+  <si>
+    <t>$DonVi_GPThuDo</t>
+  </si>
+  <si>
+    <t>$ChongMy</t>
+  </si>
+  <si>
+    <t>$ChucVu_HCM</t>
+  </si>
+  <si>
+    <t>$DonVi_HCM</t>
+  </si>
+  <si>
+    <t>$CCB_sau304</t>
+  </si>
+  <si>
+    <t>$ThuongBinh</t>
+  </si>
+  <si>
+    <t>$BenhBinh</t>
+  </si>
+  <si>
+    <t>$ChatDocDaCam_BanThan</t>
+  </si>
+  <si>
+    <t>$ChatDocDaCam_Con</t>
+  </si>
+  <si>
+    <t>$ConLietSi</t>
+  </si>
+  <si>
+    <t>$DanTocItNguoi</t>
+  </si>
+  <si>
+    <t>$CongGiao</t>
+  </si>
+  <si>
+    <t>$NgayVaoHoi</t>
+  </si>
+  <si>
+    <t>$NamCapTheHoiVien</t>
+  </si>
+  <si>
+    <t>Số thẻ hội viên</t>
+  </si>
+  <si>
+    <t>$SoTheHoiVien</t>
+  </si>
+  <si>
+    <t>$CHIHOI</t>
   </si>
 </sst>
 </file>
@@ -258,14 +354,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -274,6 +364,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -559,10 +655,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection sqref="A1:AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,265 +688,369 @@
     <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:34" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+    </row>
+    <row r="3" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="3" t="s">
+      <c r="W3" s="8"/>
+      <c r="X3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4" t="s">
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>37</v>
+      <c r="AH3" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="4" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="R4" s="8"/>
+      <c r="S4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4" t="s">
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-    </row>
-    <row r="3" spans="1:34" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-    </row>
-    <row r="4" spans="1:34" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+    </row>
+    <row r="5" spans="1:34" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+    </row>
+    <row r="6" spans="1:34" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="AH1:AH3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="AA1:AB2"/>
-    <mergeCell ref="AC1:AC3"/>
-    <mergeCell ref="AD1:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF1:AF3"/>
-    <mergeCell ref="AG1:AG3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:U3"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="G1:P1"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:R2"/>
+  <mergeCells count="27">
+    <mergeCell ref="A1:AH1"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AC3:AC5"/>
+    <mergeCell ref="AD3:AD5"/>
+    <mergeCell ref="AE3:AE5"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="G3:P3"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="AH3:AH5"/>
+    <mergeCell ref="AF3:AF5"/>
+    <mergeCell ref="AG3:AG5"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="Y3:Y5"/>
+    <mergeCell ref="Z3:Z5"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
